--- a/eco calc.xlsx
+++ b/eco calc.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D5AFCAF-3081-4C5F-B3D5-F1AD99DFDB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aphaone\Documents\GitHub\eco_calculator_exel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2648C4D8-83F3-4477-A3F9-A799CECDA9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="settings" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId2"/>
+    <sheet name="composant" sheetId="2" r:id="rId3"/>
+    <sheet name="ingénieur" sheetId="4" r:id="rId4"/>
+    <sheet name="mecanique" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,9 +36,47 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t xml:space="preserve">item </t>
+  </si>
+  <si>
+    <t>prix</t>
+  </si>
+  <si>
+    <t>taux de taxe</t>
+  </si>
+  <si>
+    <t>adherent ,id ad , nom ad , prenon ad, datenaiss_ad,sex,tel,mail,adressse1,adresse2,cp,ville.</t>
+  </si>
+  <si>
+    <t>marge</t>
+  </si>
+  <si>
+    <t>tarif anneabo,tarifadulte,tarif enfant</t>
+  </si>
+  <si>
+    <t>lieu id, nom,cordgps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marche id date difficulté </t>
+  </si>
+  <si>
+    <t>paye id ad , nom ad , prenon ad, datenaiss_ad,sex,tel,mail,adressse1,adresse2,cp,ville.anneabo,tarifadulte,tarif enfant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inscrit id ad , nom ad , prenon ad, datenaiss_ad,sex,tel,mail,adressse1,adresse2,cp,ville. id date difficulté </t>
+  </si>
+  <si>
+    <t xml:space="preserve">se trouve </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,15 +85,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -54,12 +107,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -78,7 +147,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -374,11 +443,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="I8:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CE9A5C-C767-4170-B714-236B145B51A1}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="104.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541573E4-2057-43B1-A03B-AD51B9FE87B1}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C3EC29-AB82-41F4-9C96-5DD06133CAE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3D65C8-15C3-4287-A0B4-C62452DAE9BC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
